--- a/KW/Appliance at each Home.xlsx
+++ b/KW/Appliance at each Home.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyungwoo.ECE-Santoso2\Google Drive\Belkin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyungwoo.ECE-Santoso2\Documents\GitHub\ED\KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>Phase 1</t>
   </si>
@@ -65,33 +65,12 @@
     <t>Home 3-1</t>
   </si>
   <si>
-    <t>19~22</t>
-  </si>
-  <si>
-    <t>35~37</t>
-  </si>
-  <si>
-    <t>44~46</t>
-  </si>
-  <si>
-    <t>52~54</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
     <t>change thres</t>
   </si>
   <si>
     <t>Thres 20 W</t>
   </si>
   <si>
-    <t>11~13</t>
-  </si>
-  <si>
-    <t>17~19</t>
-  </si>
-  <si>
     <t>58&amp;59</t>
   </si>
   <si>
@@ -105,6 +84,30 @@
   </si>
   <si>
     <t>81(Outlier)</t>
+  </si>
+  <si>
+    <t>20~23</t>
+  </si>
+  <si>
+    <t>35~39</t>
+  </si>
+  <si>
+    <t>45~49</t>
+  </si>
+  <si>
+    <t>56~58</t>
+  </si>
+  <si>
+    <t>Offset(min)</t>
+  </si>
+  <si>
+    <t>Offset(max)</t>
+  </si>
+  <si>
+    <t>On Cluster</t>
+  </si>
+  <si>
+    <t>Off Cluster</t>
   </si>
 </sst>
 </file>
@@ -146,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,452 +433,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="M7">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>-100</v>
-      </c>
-      <c r="H7">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>-60</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>-100</v>
-      </c>
-      <c r="H9">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>-60</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>-60</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>-60</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="M11">
         <v>33</v>
       </c>
-      <c r="G10">
-        <v>-100</v>
-      </c>
-      <c r="H10">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>38</v>
-      </c>
-      <c r="F13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>36</v>
+      </c>
+      <c r="M13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="I14">
+        <v>38</v>
+      </c>
+      <c r="M14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="M15">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24">
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
         <v>13</v>
       </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
         <v>15</v>
       </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
         <v>17</v>
       </c>
-      <c r="C29">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>79</v>
-      </c>
-      <c r="F37">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="E39">
-        <v>84</v>
-      </c>
-      <c r="F39">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="E40">
+      <c r="I40">
+        <v>84</v>
+      </c>
+      <c r="J40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41">
         <v>88</v>
       </c>
-      <c r="F40">
+      <c r="J41">
         <v>89</v>
       </c>
     </row>

--- a/KW/Appliance at each Home.xlsx
+++ b/KW/Appliance at each Home.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyungwoo.ECE-Santoso2\Documents\GitHub\ED\KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\College Files\Projects\ED\KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>Phase 1</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Off Cluster</t>
+  </si>
+  <si>
+    <t>App Name</t>
   </si>
 </sst>
 </file>
@@ -436,21 +439,25 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -458,7 +465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -466,19 +473,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
@@ -492,7 +511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -503,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -514,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -525,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -536,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -553,7 +572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -570,7 +589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -587,7 +606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -604,7 +623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -615,7 +634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -626,7 +645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -637,7 +656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -648,51 +667,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -700,7 +719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -708,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -716,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -727,7 +746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -738,7 +757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -749,7 +768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,112 +779,112 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
         <v>18</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -876,7 +895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -887,7 +906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -898,7 +917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
